--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.3996</v>
+        <v>15.24389999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.08259999999999</v>
+        <v>-12.687</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.1415</v>
+        <v>-12.9409</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.815</v>
+        <v>-10.7275</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.8502</v>
+        <v>16.87540000000001</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1901</v>
+        <v>16.0694</v>
       </c>
     </row>
     <row r="16">
@@ -740,13 +740,13 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.63149999999999</v>
+        <v>-11.4193</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.13740000000001</v>
+        <v>18.00290000000001</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8543</v>
+        <v>15.9095</v>
       </c>
     </row>
     <row r="21">
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.191</v>
+        <v>-12.6162</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.25050000000002</v>
+        <v>17.11950000000002</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.56190000000001</v>
+        <v>15.7075</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.06550000000001</v>
+        <v>16.11060000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.779</v>
+        <v>15.81109999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.05149999999999</v>
+        <v>-13.92739999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.19190000000001</v>
+        <v>17.05880000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.40109999999999</v>
+        <v>16.4649</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3797</v>
+        <v>16.33289999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.45039999999999</v>
+        <v>16.40439999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.40319999999999</v>
+        <v>-13.61769999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,13 +1590,13 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.9183</v>
+        <v>-11.0359</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.21920000000001</v>
+        <v>17.20000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.09929999999999</v>
+        <v>16.12369999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.47380000000001</v>
+        <v>-12.57650000000001</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.35700000000001</v>
+        <v>-12.67930000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.8971</v>
+        <v>-12.4741</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1794,7 +1794,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.132</v>
+        <v>-12.91480000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.9931</v>
+        <v>-13.2379</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.8394</v>
+        <v>-11.86959999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.82539999999999</v>
+        <v>-13.43989999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.1864</v>
+        <v>16.36770000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4149</v>
+        <v>16.4175</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.83410000000001</v>
+        <v>18.88630000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.24729999999999</v>
+        <v>16.21859999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.2773</v>
+        <v>15.65300000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.1972</v>
+        <v>-11.9294</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.94850000000001</v>
+        <v>16.71530000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.012</v>
+        <v>-12.00489999999999</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.65179999999998</v>
+        <v>16.7056</v>
       </c>
     </row>
   </sheetData>
